--- a/Design/Excel/EntityTransitionTable.xlsx
+++ b/Design/Excel/EntityTransitionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2225B-C8D2-47F7-8FBB-A3BD53384593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15EB631-A6B5-4614-868B-8F15B2E05D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -200,15 +200,7 @@
     <t>[PressMove]</t>
   </si>
   <si>
-    <t>ENUM_ENTITY_STATE</t>
-  </si>
-  <si>
-    <t>ENUM_ENTITY_STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[No]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ENUM_CHARACTER_STATE</t>
   </si>
 </sst>
 </file>
@@ -545,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA8EF6-99BA-4D84-B48D-557D0DFDEA15}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>
@@ -842,13 +834,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -859,10 +851,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -873,10 +865,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -887,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -901,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -912,13 +904,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -929,10 +921,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -940,13 +932,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -957,10 +949,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,10 +963,10 @@
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -985,10 +977,10 @@
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -996,13 +988,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1010,13 +1002,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1024,13 +1016,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,10 +1033,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1055,10 +1047,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,10 +1061,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,10 +1075,10 @@
         <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,10 +1089,10 @@
         <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,10 +1103,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,10 +1117,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1136,13 +1128,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1150,13 +1142,13 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1164,42 +1156,20 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Design/Excel/EntityTransitionTable.xlsx
+++ b/Design/Excel/EntityTransitionTable.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15EB631-A6B5-4614-868B-8F15B2E05D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146624B0-6929-470D-B2C6-0B6B43839B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition" sheetId="2" r:id="rId1"/>
-    <sheet name="PriorityTransition" sheetId="6" r:id="rId2"/>
-    <sheet name="DefaultTransition" sheetId="4" r:id="rId3"/>
-    <sheet name="LoopTransition" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="40">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>currentState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[PressMove]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Die]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,9 +180,6 @@
   <si>
     <t>Attack1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PressMove]</t>
   </si>
   <si>
     <t>ENUM_CHARACTER_STATE</t>
@@ -535,35 +517,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA8EF6-99BA-4D84-B48D-557D0DFDEA15}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -577,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -585,13 +567,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -599,13 +581,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -613,13 +595,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -627,13 +609,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -641,13 +623,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -655,13 +637,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -669,13 +651,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -683,13 +665,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -697,13 +679,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -717,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -731,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -739,13 +721,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -753,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -767,13 +749,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -781,13 +763,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -795,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -809,13 +791,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
@@ -823,27 +805,27 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -851,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -865,13 +847,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -879,13 +861,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -893,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -907,13 +889,13 @@
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -921,399 +903,318 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC12423C-5067-4A04-85C6-6009CF14E5BB}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="18.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584C65C-F76C-407B-AD3E-B8DFD9B7E595}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D490A96-8DEE-499E-A2D8-C9EC43E15253}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/EntityTransitionTable.xlsx
+++ b/Design/Excel/EntityTransitionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146624B0-6929-470D-B2C6-0B6B43839B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDDF86C-58E4-41A0-932F-E465FCE567C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>ENUM_CHARACTER_STATE</t>
+  </si>
+  <si>
+    <t># 동시에 트랜지션이 가능하다면, 인덱스가 낮은 트랜지션이 우선으로 수행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA8EF6-99BA-4D84-B48D-557D0DFDEA15}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1217,6 +1221,11 @@
         <v>36</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
